--- a/One_shot_adapt.xlsx
+++ b/One_shot_adapt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCSE-AI.R-CIL1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F60D652-F2ED-4334-83A3-6412332F4E3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4178C6E8-9F84-4244-9B94-204EDEADE909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" firstSheet="5" activeTab="11" xr2:uid="{BF8D7467-E541-4DA9-8A3B-EE5F4F1E2FD2}"/>
   </bookViews>
@@ -28888,8 +28888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8246CB76-A5C0-434E-81E7-D046CFCD979B}">
   <dimension ref="A1:AD169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H100" workbookViewId="0">
-      <selection activeCell="S122" sqref="S122"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="K130" sqref="K130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38494,6 +38494,24 @@
       <c r="C114">
         <v>94.949494949494948</v>
       </c>
+      <c r="D114">
+        <v>84.693877551020407</v>
+      </c>
+      <c r="E114">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="F114">
+        <v>93.877551020408163</v>
+      </c>
+      <c r="G114">
+        <v>84.536082474226802</v>
+      </c>
+      <c r="H114">
+        <v>85.567010309278345</v>
+      </c>
+      <c r="I114">
+        <v>91.75257731958763</v>
+      </c>
       <c r="M114">
         <v>84.21052631578948</v>
       </c>
@@ -38523,6 +38541,24 @@
       <c r="C115">
         <v>88.888888888888886</v>
       </c>
+      <c r="D115">
+        <v>88.775510204081627</v>
+      </c>
+      <c r="E115">
+        <v>90.816326530612244</v>
+      </c>
+      <c r="F115">
+        <v>88.775510204081627</v>
+      </c>
+      <c r="G115">
+        <v>88.659793814432987</v>
+      </c>
+      <c r="H115">
+        <v>90.721649484536087</v>
+      </c>
+      <c r="I115">
+        <v>91.75257731958763</v>
+      </c>
       <c r="M115">
         <v>88.421052631578945</v>
       </c>
@@ -38552,6 +38588,24 @@
       <c r="C116">
         <v>98.98989898989899</v>
       </c>
+      <c r="D116">
+        <v>96.938775510204081</v>
+      </c>
+      <c r="E116">
+        <v>96.938775510204081</v>
+      </c>
+      <c r="F116">
+        <v>100</v>
+      </c>
+      <c r="G116">
+        <v>96.907216494845358</v>
+      </c>
+      <c r="H116">
+        <v>96.907216494845358</v>
+      </c>
+      <c r="I116">
+        <v>98.969072164948457</v>
+      </c>
       <c r="M116">
         <v>96.84210526315789</v>
       </c>
@@ -38581,6 +38635,24 @@
       <c r="C117">
         <v>87.878787878787875</v>
       </c>
+      <c r="D117">
+        <v>88.775510204081627</v>
+      </c>
+      <c r="E117">
+        <v>83.673469387755105</v>
+      </c>
+      <c r="F117">
+        <v>84.693877551020407</v>
+      </c>
+      <c r="G117">
+        <v>88.659793814432987</v>
+      </c>
+      <c r="H117">
+        <v>83.505154639175259</v>
+      </c>
+      <c r="I117">
+        <v>90.721649484536087</v>
+      </c>
       <c r="M117">
         <v>89.473684210526315</v>
       </c>
@@ -38610,6 +38682,24 @@
       <c r="C118">
         <v>88.888888888888886</v>
       </c>
+      <c r="D118">
+        <v>83.673469387755105</v>
+      </c>
+      <c r="E118">
+        <v>82.65306122448979</v>
+      </c>
+      <c r="F118">
+        <v>87.755102040816325</v>
+      </c>
+      <c r="G118">
+        <v>83.505154639175259</v>
+      </c>
+      <c r="H118">
+        <v>82.474226804123717</v>
+      </c>
+      <c r="I118">
+        <v>87.628865979381445</v>
+      </c>
       <c r="M118">
         <v>84.21052631578948</v>
       </c>
@@ -38637,6 +38727,24 @@
         <v>100</v>
       </c>
       <c r="C119">
+        <v>100</v>
+      </c>
+      <c r="D119">
+        <v>100</v>
+      </c>
+      <c r="E119">
+        <v>100</v>
+      </c>
+      <c r="F119">
+        <v>100</v>
+      </c>
+      <c r="G119">
+        <v>100</v>
+      </c>
+      <c r="H119">
+        <v>100</v>
+      </c>
+      <c r="I119">
         <v>100</v>
       </c>
       <c r="M119">
@@ -38668,6 +38776,24 @@
       <c r="C120">
         <v>87.878787878787875</v>
       </c>
+      <c r="D120">
+        <v>87.755102040816325</v>
+      </c>
+      <c r="E120">
+        <v>87.755102040816325</v>
+      </c>
+      <c r="F120">
+        <v>87.755102040816325</v>
+      </c>
+      <c r="G120">
+        <v>87.628865979381445</v>
+      </c>
+      <c r="H120">
+        <v>87.628865979381445</v>
+      </c>
+      <c r="I120">
+        <v>87.628865979381445</v>
+      </c>
       <c r="M120">
         <v>87.368421052631575</v>
       </c>
@@ -38697,6 +38823,24 @@
       <c r="C121">
         <v>91.919191919191917</v>
       </c>
+      <c r="D121">
+        <v>89.795918367346943</v>
+      </c>
+      <c r="E121">
+        <v>90.816326530612244</v>
+      </c>
+      <c r="F121">
+        <v>91.836734693877546</v>
+      </c>
+      <c r="G121">
+        <v>89.69072164948453</v>
+      </c>
+      <c r="H121">
+        <v>90.721649484536087</v>
+      </c>
+      <c r="I121">
+        <v>89.69072164948453</v>
+      </c>
       <c r="M121">
         <v>89.473684210526315</v>
       </c>
@@ -38726,6 +38870,24 @@
       <c r="C122">
         <v>81.818181818181813</v>
       </c>
+      <c r="D122">
+        <v>72.448979591836732</v>
+      </c>
+      <c r="E122">
+        <v>79.591836734693871</v>
+      </c>
+      <c r="F122">
+        <v>80.612244897959187</v>
+      </c>
+      <c r="G122">
+        <v>72.164948453608247</v>
+      </c>
+      <c r="H122">
+        <v>79.381443298969074</v>
+      </c>
+      <c r="I122">
+        <v>72.164948453608247</v>
+      </c>
       <c r="M122">
         <v>72.631578947368425</v>
       </c>
@@ -38755,6 +38917,24 @@
       <c r="C123">
         <v>62.626262626262623</v>
       </c>
+      <c r="D123">
+        <v>62.244897959183668</v>
+      </c>
+      <c r="E123">
+        <v>62.244897959183668</v>
+      </c>
+      <c r="F123">
+        <v>62.244897959183668</v>
+      </c>
+      <c r="G123">
+        <v>62.886597938144327</v>
+      </c>
+      <c r="H123">
+        <v>62.886597938144327</v>
+      </c>
+      <c r="I123">
+        <v>69.072164948453604</v>
+      </c>
       <c r="M123">
         <v>62.105263157894747</v>
       </c>
@@ -38784,6 +38964,24 @@
       <c r="C124">
         <v>78.787878787878782</v>
       </c>
+      <c r="D124">
+        <v>73.469387755102048</v>
+      </c>
+      <c r="E124">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F124">
+        <v>74.489795918367349</v>
+      </c>
+      <c r="G124">
+        <v>74.226804123711347</v>
+      </c>
+      <c r="H124">
+        <v>72.164948453608247</v>
+      </c>
+      <c r="I124">
+        <v>75.257731958762889</v>
+      </c>
       <c r="M124">
         <v>75.78947368421052</v>
       </c>
@@ -38813,6 +39011,24 @@
       <c r="C125">
         <v>87.878787878787875</v>
       </c>
+      <c r="D125">
+        <v>74.489795918367349</v>
+      </c>
+      <c r="E125">
+        <v>81.632653061224488</v>
+      </c>
+      <c r="F125">
+        <v>87.755102040816325</v>
+      </c>
+      <c r="G125">
+        <v>74.226804123711347</v>
+      </c>
+      <c r="H125">
+        <v>81.44329896907216</v>
+      </c>
+      <c r="I125">
+        <v>88.659793814432987</v>
+      </c>
       <c r="M125">
         <v>73.684210526315795</v>
       </c>
@@ -38842,6 +39058,24 @@
       <c r="C126">
         <v>61.616161616161619</v>
       </c>
+      <c r="D126">
+        <v>58.163265306122447</v>
+      </c>
+      <c r="E126">
+        <v>65.306122448979579</v>
+      </c>
+      <c r="F126">
+        <v>61.224489795918373</v>
+      </c>
+      <c r="G126">
+        <v>57.731958762886592</v>
+      </c>
+      <c r="H126">
+        <v>64.948453608247419</v>
+      </c>
+      <c r="I126">
+        <v>68.041237113402062</v>
+      </c>
       <c r="M126">
         <v>57.89473684210526</v>
       </c>
@@ -38871,6 +39105,24 @@
       <c r="C127">
         <v>82.828282828282823</v>
       </c>
+      <c r="D127">
+        <v>79.591836734693871</v>
+      </c>
+      <c r="E127">
+        <v>79.591836734693871</v>
+      </c>
+      <c r="F127">
+        <v>79.591836734693871</v>
+      </c>
+      <c r="G127">
+        <v>79.381443298969074</v>
+      </c>
+      <c r="H127">
+        <v>79.381443298969074</v>
+      </c>
+      <c r="I127">
+        <v>81.44329896907216</v>
+      </c>
       <c r="M127">
         <v>80</v>
       </c>
@@ -38900,6 +39152,24 @@
       <c r="C128">
         <v>79.797979797979792</v>
       </c>
+      <c r="D128">
+        <v>80.612244897959187</v>
+      </c>
+      <c r="E128">
+        <v>77.551020408163268</v>
+      </c>
+      <c r="F128">
+        <v>78.571428571428569</v>
+      </c>
+      <c r="G128">
+        <v>81.44329896907216</v>
+      </c>
+      <c r="H128">
+        <v>78.350515463917532</v>
+      </c>
+      <c r="I128">
+        <v>81.44329896907216</v>
+      </c>
       <c r="M128">
         <v>81.05263157894737</v>
       </c>
@@ -38929,6 +39199,24 @@
       <c r="C129">
         <v>71.717171717171723</v>
       </c>
+      <c r="D129">
+        <v>79.591836734693871</v>
+      </c>
+      <c r="E129">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F129">
+        <v>75.510204081632651</v>
+      </c>
+      <c r="G129">
+        <v>79.381443298969074</v>
+      </c>
+      <c r="H129">
+        <v>71.134020618556704</v>
+      </c>
+      <c r="I129">
+        <v>78.350515463917532</v>
+      </c>
       <c r="M129">
         <v>78.94736842105263</v>
       </c>
@@ -38958,6 +39246,24 @@
       <c r="C130">
         <v>81.818181818181813</v>
       </c>
+      <c r="D130">
+        <v>77.551020408163268</v>
+      </c>
+      <c r="E130">
+        <v>77.551020408163268</v>
+      </c>
+      <c r="F130">
+        <v>79.591836734693871</v>
+      </c>
+      <c r="G130">
+        <v>77.319587628865975</v>
+      </c>
+      <c r="H130">
+        <v>77.319587628865975</v>
+      </c>
+      <c r="I130">
+        <v>81.44329896907216</v>
+      </c>
       <c r="M130">
         <v>77.89473684210526</v>
       </c>
@@ -38987,6 +39293,24 @@
       <c r="C131">
         <v>98.98989898989899</v>
       </c>
+      <c r="D131">
+        <v>94.897959183673464</v>
+      </c>
+      <c r="E131">
+        <v>93.877551020408163</v>
+      </c>
+      <c r="F131">
+        <v>98.979591836734699</v>
+      </c>
+      <c r="G131">
+        <v>94.845360824742272</v>
+      </c>
+      <c r="H131">
+        <v>93.814432989690715</v>
+      </c>
+      <c r="I131">
+        <v>97.9381443298969</v>
+      </c>
       <c r="M131">
         <v>94.736842105263165</v>
       </c>
@@ -39016,6 +39340,24 @@
       <c r="C132">
         <v>95.959595959595958</v>
       </c>
+      <c r="D132">
+        <v>91.836734693877546</v>
+      </c>
+      <c r="E132">
+        <v>91.836734693877546</v>
+      </c>
+      <c r="F132">
+        <v>93.877551020408163</v>
+      </c>
+      <c r="G132">
+        <v>91.75257731958763</v>
+      </c>
+      <c r="H132">
+        <v>91.75257731958763</v>
+      </c>
+      <c r="I132">
+        <v>95.876288659793815</v>
+      </c>
       <c r="M132">
         <v>92.631578947368425</v>
       </c>
@@ -39045,6 +39387,24 @@
       <c r="C133">
         <v>90.909090909090907</v>
       </c>
+      <c r="D133">
+        <v>90.816326530612244</v>
+      </c>
+      <c r="E133">
+        <v>82.65306122448979</v>
+      </c>
+      <c r="F133">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G133">
+        <v>90.721649484536087</v>
+      </c>
+      <c r="H133">
+        <v>82.474226804123717</v>
+      </c>
+      <c r="I133">
+        <v>91.75257731958763</v>
+      </c>
       <c r="M133">
         <v>91.578947368421055</v>
       </c>
@@ -39074,6 +39434,24 @@
       <c r="C134">
         <v>100</v>
       </c>
+      <c r="D134">
+        <v>98.979591836734699</v>
+      </c>
+      <c r="E134">
+        <v>98.979591836734699</v>
+      </c>
+      <c r="F134">
+        <v>100</v>
+      </c>
+      <c r="G134">
+        <v>98.969072164948457</v>
+      </c>
+      <c r="H134">
+        <v>98.969072164948457</v>
+      </c>
+      <c r="I134">
+        <v>100</v>
+      </c>
       <c r="M134">
         <v>98.94736842105263</v>
       </c>
@@ -39103,6 +39481,24 @@
       <c r="C135">
         <v>78.787878787878782</v>
       </c>
+      <c r="D135">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="E135">
+        <v>81.632653061224488</v>
+      </c>
+      <c r="F135">
+        <v>80.612244897959187</v>
+      </c>
+      <c r="G135">
+        <v>85.567010309278345</v>
+      </c>
+      <c r="H135">
+        <v>81.44329896907216</v>
+      </c>
+      <c r="I135">
+        <v>78.350515463917532</v>
+      </c>
       <c r="M135">
         <v>85.263157894736835</v>
       </c>
@@ -39132,6 +39528,24 @@
       <c r="C136">
         <v>65.656565656565661</v>
       </c>
+      <c r="D136">
+        <v>65.306122448979579</v>
+      </c>
+      <c r="E136">
+        <v>69.387755102040813</v>
+      </c>
+      <c r="F136">
+        <v>65.306122448979579</v>
+      </c>
+      <c r="G136">
+        <v>64.948453608247419</v>
+      </c>
+      <c r="H136">
+        <v>69.072164948453604</v>
+      </c>
+      <c r="I136">
+        <v>64.948453608247419</v>
+      </c>
       <c r="M136">
         <v>64.21052631578948</v>
       </c>
@@ -39161,6 +39575,24 @@
       <c r="C137">
         <v>71.717171717171723</v>
       </c>
+      <c r="D137">
+        <v>70.408163265306129</v>
+      </c>
+      <c r="E137">
+        <v>61.224489795918373</v>
+      </c>
+      <c r="F137">
+        <v>70.408163265306129</v>
+      </c>
+      <c r="G137">
+        <v>71.134020618556704</v>
+      </c>
+      <c r="H137">
+        <v>61.855670103092777</v>
+      </c>
+      <c r="I137">
+        <v>65.979381443298962</v>
+      </c>
       <c r="M137">
         <v>71.578947368421055</v>
       </c>
@@ -39190,6 +39622,24 @@
       <c r="C138">
         <v>97.979797979797979</v>
       </c>
+      <c r="D138">
+        <v>97.959183673469383</v>
+      </c>
+      <c r="E138">
+        <v>97.959183673469383</v>
+      </c>
+      <c r="F138">
+        <v>98.979591836734699</v>
+      </c>
+      <c r="G138">
+        <v>97.9381443298969</v>
+      </c>
+      <c r="H138">
+        <v>97.9381443298969</v>
+      </c>
+      <c r="I138">
+        <v>97.9381443298969</v>
+      </c>
       <c r="M138">
         <v>98.94736842105263</v>
       </c>
@@ -39219,6 +39669,24 @@
       <c r="C139">
         <v>78.787878787878782</v>
       </c>
+      <c r="D139">
+        <v>70.408163265306129</v>
+      </c>
+      <c r="E139">
+        <v>70.408163265306129</v>
+      </c>
+      <c r="F139">
+        <v>80.612244897959187</v>
+      </c>
+      <c r="G139">
+        <v>70.103092783505161</v>
+      </c>
+      <c r="H139">
+        <v>70.103092783505161</v>
+      </c>
+      <c r="I139">
+        <v>78.350515463917532</v>
+      </c>
       <c r="M139">
         <v>71.578947368421055</v>
       </c>
@@ -39248,6 +39716,24 @@
       <c r="C140">
         <v>93.939393939393938</v>
       </c>
+      <c r="D140">
+        <v>93.877551020408163</v>
+      </c>
+      <c r="E140">
+        <v>94.897959183673464</v>
+      </c>
+      <c r="F140">
+        <v>93.877551020408163</v>
+      </c>
+      <c r="G140">
+        <v>93.814432989690715</v>
+      </c>
+      <c r="H140">
+        <v>94.845360824742272</v>
+      </c>
+      <c r="I140">
+        <v>93.814432989690715</v>
+      </c>
       <c r="M140">
         <v>93.684210526315795</v>
       </c>
@@ -39275,6 +39761,24 @@
         <v>98.98989898989899</v>
       </c>
       <c r="C141">
+        <v>100</v>
+      </c>
+      <c r="D141">
+        <v>100</v>
+      </c>
+      <c r="E141">
+        <v>98.979591836734699</v>
+      </c>
+      <c r="F141">
+        <v>100</v>
+      </c>
+      <c r="G141">
+        <v>100</v>
+      </c>
+      <c r="H141">
+        <v>98.969072164948457</v>
+      </c>
+      <c r="I141">
         <v>100</v>
       </c>
       <c r="M141">
@@ -39306,6 +39810,24 @@
       <c r="C142">
         <v>78.787878787878782</v>
       </c>
+      <c r="D142">
+        <v>84.693877551020407</v>
+      </c>
+      <c r="E142">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="F142">
+        <v>84.693877551020407</v>
+      </c>
+      <c r="G142">
+        <v>84.536082474226802</v>
+      </c>
+      <c r="H142">
+        <v>85.567010309278345</v>
+      </c>
+      <c r="I142">
+        <v>79.381443298969074</v>
+      </c>
       <c r="M142">
         <v>84.21052631578948</v>
       </c>
@@ -39335,6 +39857,24 @@
       <c r="C143">
         <v>92.929292929292927</v>
       </c>
+      <c r="D143">
+        <v>73.469387755102048</v>
+      </c>
+      <c r="E143">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F143">
+        <v>93.877551020408163</v>
+      </c>
+      <c r="G143">
+        <v>73.19587628865979</v>
+      </c>
+      <c r="H143">
+        <v>71.134020618556704</v>
+      </c>
+      <c r="I143">
+        <v>92.783505154639172</v>
+      </c>
       <c r="M143">
         <v>73.684210526315795</v>
       </c>
@@ -39364,6 +39904,24 @@
       <c r="C144">
         <v>81.818181818181813</v>
       </c>
+      <c r="D144">
+        <v>73.469387755102048</v>
+      </c>
+      <c r="E144">
+        <v>72.448979591836732</v>
+      </c>
+      <c r="F144">
+        <v>79.591836734693871</v>
+      </c>
+      <c r="G144">
+        <v>73.19587628865979</v>
+      </c>
+      <c r="H144">
+        <v>72.164948453608247</v>
+      </c>
+      <c r="I144">
+        <v>82.474226804123717</v>
+      </c>
       <c r="M144">
         <v>73.684210526315795</v>
       </c>
@@ -39393,6 +39951,24 @@
       <c r="C145">
         <v>91.919191919191917</v>
       </c>
+      <c r="D145">
+        <v>91.836734693877546</v>
+      </c>
+      <c r="E145">
+        <v>94.897959183673464</v>
+      </c>
+      <c r="F145">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G145">
+        <v>91.75257731958763</v>
+      </c>
+      <c r="H145">
+        <v>94.845360824742272</v>
+      </c>
+      <c r="I145">
+        <v>91.75257731958763</v>
+      </c>
       <c r="M145">
         <v>91.578947368421055</v>
       </c>
@@ -39422,6 +39998,24 @@
       <c r="C146">
         <v>97.979797979797979</v>
       </c>
+      <c r="D146">
+        <v>98.979591836734699</v>
+      </c>
+      <c r="E146">
+        <v>98.979591836734699</v>
+      </c>
+      <c r="F146">
+        <v>97.959183673469383</v>
+      </c>
+      <c r="G146">
+        <v>98.969072164948457</v>
+      </c>
+      <c r="H146">
+        <v>98.969072164948457</v>
+      </c>
+      <c r="I146">
+        <v>97.9381443298969</v>
+      </c>
       <c r="M146">
         <v>98.94736842105263</v>
       </c>
@@ -39451,6 +40045,24 @@
       <c r="C147">
         <v>65.656565656565661</v>
       </c>
+      <c r="D147">
+        <v>73.469387755102048</v>
+      </c>
+      <c r="E147">
+        <v>64.285714285714292</v>
+      </c>
+      <c r="F147">
+        <v>69.387755102040813</v>
+      </c>
+      <c r="G147">
+        <v>73.19587628865979</v>
+      </c>
+      <c r="H147">
+        <v>63.917525773195869</v>
+      </c>
+      <c r="I147">
+        <v>71.134020618556704</v>
+      </c>
       <c r="M147">
         <v>74.736842105263165</v>
       </c>
@@ -39480,6 +40092,24 @@
       <c r="C148">
         <v>100</v>
       </c>
+      <c r="D148">
+        <v>100</v>
+      </c>
+      <c r="E148">
+        <v>100</v>
+      </c>
+      <c r="F148">
+        <v>100</v>
+      </c>
+      <c r="G148">
+        <v>100</v>
+      </c>
+      <c r="H148">
+        <v>100</v>
+      </c>
+      <c r="I148">
+        <v>100</v>
+      </c>
       <c r="M148">
         <v>100</v>
       </c>
@@ -39507,6 +40137,24 @@
         <v>100</v>
       </c>
       <c r="C149">
+        <v>100</v>
+      </c>
+      <c r="D149">
+        <v>100</v>
+      </c>
+      <c r="E149">
+        <v>100</v>
+      </c>
+      <c r="F149">
+        <v>100</v>
+      </c>
+      <c r="G149">
+        <v>100</v>
+      </c>
+      <c r="H149">
+        <v>100</v>
+      </c>
+      <c r="I149">
         <v>100</v>
       </c>
       <c r="M149">
@@ -39538,6 +40186,24 @@
       <c r="C150">
         <v>94.949494949494948</v>
       </c>
+      <c r="D150">
+        <v>94.897959183673464</v>
+      </c>
+      <c r="E150">
+        <v>94.897959183673464</v>
+      </c>
+      <c r="F150">
+        <v>95.91836734693878</v>
+      </c>
+      <c r="G150">
+        <v>94.845360824742272</v>
+      </c>
+      <c r="H150">
+        <v>94.845360824742272</v>
+      </c>
+      <c r="I150">
+        <v>95.876288659793815</v>
+      </c>
       <c r="M150">
         <v>94.736842105263165</v>
       </c>
@@ -39567,6 +40233,24 @@
       <c r="C151">
         <v>75.757575757575751</v>
       </c>
+      <c r="D151">
+        <v>73.469387755102048</v>
+      </c>
+      <c r="E151">
+        <v>66.326530612244895</v>
+      </c>
+      <c r="F151">
+        <v>73.469387755102048</v>
+      </c>
+      <c r="G151">
+        <v>73.19587628865979</v>
+      </c>
+      <c r="H151">
+        <v>65.979381443298962</v>
+      </c>
+      <c r="I151">
+        <v>74.226804123711347</v>
+      </c>
       <c r="M151">
         <v>72.631578947368425</v>
       </c>
@@ -39596,6 +40280,24 @@
       <c r="C152">
         <v>92.929292929292927</v>
       </c>
+      <c r="D152">
+        <v>96.938775510204081</v>
+      </c>
+      <c r="E152">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="F152">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G152">
+        <v>96.907216494845358</v>
+      </c>
+      <c r="H152">
+        <v>92.783505154639172</v>
+      </c>
+      <c r="I152">
+        <v>92.783505154639172</v>
+      </c>
       <c r="M152">
         <v>96.84210526315789</v>
       </c>
@@ -39625,6 +40327,24 @@
       <c r="C153">
         <v>82.828282828282823</v>
       </c>
+      <c r="D153">
+        <v>84.693877551020407</v>
+      </c>
+      <c r="E153">
+        <v>80.612244897959187</v>
+      </c>
+      <c r="F153">
+        <v>78.571428571428569</v>
+      </c>
+      <c r="G153">
+        <v>84.536082474226802</v>
+      </c>
+      <c r="H153">
+        <v>80.412371134020617</v>
+      </c>
+      <c r="I153">
+        <v>83.505154639175259</v>
+      </c>
       <c r="M153">
         <v>84.21052631578948</v>
       </c>
@@ -39654,6 +40374,24 @@
       <c r="C154">
         <v>85.858585858585855</v>
       </c>
+      <c r="D154">
+        <v>83.673469387755105</v>
+      </c>
+      <c r="E154">
+        <v>75.510204081632651</v>
+      </c>
+      <c r="F154">
+        <v>79.591836734693871</v>
+      </c>
+      <c r="G154">
+        <v>84.536082474226802</v>
+      </c>
+      <c r="H154">
+        <v>76.288659793814432</v>
+      </c>
+      <c r="I154">
+        <v>77.319587628865975</v>
+      </c>
       <c r="M154">
         <v>84.21052631578948</v>
       </c>
@@ -39683,6 +40421,24 @@
       <c r="C155">
         <v>73.737373737373744</v>
       </c>
+      <c r="D155">
+        <v>74.489795918367349</v>
+      </c>
+      <c r="E155">
+        <v>74.489795918367349</v>
+      </c>
+      <c r="F155">
+        <v>75.510204081632651</v>
+      </c>
+      <c r="G155">
+        <v>74.226804123711347</v>
+      </c>
+      <c r="H155">
+        <v>74.226804123711347</v>
+      </c>
+      <c r="I155">
+        <v>74.226804123711347</v>
+      </c>
       <c r="M155">
         <v>73.684210526315795</v>
       </c>
@@ -39712,6 +40468,24 @@
       <c r="C156">
         <v>98.98989898989899</v>
       </c>
+      <c r="D156">
+        <v>82.65306122448979</v>
+      </c>
+      <c r="E156">
+        <v>87.755102040816325</v>
+      </c>
+      <c r="F156">
+        <v>96.938775510204081</v>
+      </c>
+      <c r="G156">
+        <v>82.474226804123717</v>
+      </c>
+      <c r="H156">
+        <v>87.628865979381445</v>
+      </c>
+      <c r="I156">
+        <v>97.9381443298969</v>
+      </c>
       <c r="M156">
         <v>83.15789473684211</v>
       </c>
@@ -39741,6 +40515,24 @@
       <c r="C157">
         <v>92.929292929292927</v>
       </c>
+      <c r="D157">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="E157">
+        <v>98.979591836734699</v>
+      </c>
+      <c r="F157">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G157">
+        <v>92.783505154639172</v>
+      </c>
+      <c r="H157">
+        <v>98.969072164948457</v>
+      </c>
+      <c r="I157">
+        <v>92.783505154639172</v>
+      </c>
       <c r="M157">
         <v>92.631578947368425</v>
       </c>
@@ -39770,6 +40562,24 @@
       <c r="C158">
         <v>92.929292929292927</v>
       </c>
+      <c r="D158">
+        <v>94.897959183673464</v>
+      </c>
+      <c r="E158">
+        <v>94.897959183673464</v>
+      </c>
+      <c r="F158">
+        <v>98.979591836734699</v>
+      </c>
+      <c r="G158">
+        <v>94.845360824742272</v>
+      </c>
+      <c r="H158">
+        <v>94.845360824742272</v>
+      </c>
+      <c r="I158">
+        <v>94.845360824742272</v>
+      </c>
       <c r="M158">
         <v>94.736842105263165</v>
       </c>
@@ -39799,6 +40609,24 @@
       <c r="C159">
         <v>96.969696969696969</v>
       </c>
+      <c r="D159">
+        <v>96.938775510204081</v>
+      </c>
+      <c r="E159">
+        <v>95.91836734693878</v>
+      </c>
+      <c r="F159">
+        <v>96.938775510204081</v>
+      </c>
+      <c r="G159">
+        <v>96.907216494845358</v>
+      </c>
+      <c r="H159">
+        <v>95.876288659793815</v>
+      </c>
+      <c r="I159">
+        <v>96.907216494845358</v>
+      </c>
       <c r="M159">
         <v>96.84210526315789</v>
       </c>
@@ -39828,6 +40656,24 @@
       <c r="C160">
         <v>97.979797979797979</v>
       </c>
+      <c r="D160">
+        <v>95.91836734693878</v>
+      </c>
+      <c r="E160">
+        <v>95.91836734693878</v>
+      </c>
+      <c r="F160">
+        <v>95.91836734693878</v>
+      </c>
+      <c r="G160">
+        <v>95.876288659793815</v>
+      </c>
+      <c r="H160">
+        <v>95.876288659793815</v>
+      </c>
+      <c r="I160">
+        <v>97.9381443298969</v>
+      </c>
       <c r="M160">
         <v>95.78947368421052</v>
       </c>
@@ -39857,6 +40703,24 @@
       <c r="C161">
         <v>93.939393939393938</v>
       </c>
+      <c r="D161">
+        <v>88.775510204081627</v>
+      </c>
+      <c r="E161">
+        <v>88.775510204081627</v>
+      </c>
+      <c r="F161">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="G161">
+        <v>88.659793814432987</v>
+      </c>
+      <c r="H161">
+        <v>88.659793814432987</v>
+      </c>
+      <c r="I161">
+        <v>89.69072164948453</v>
+      </c>
       <c r="M161">
         <v>88.421052631578945</v>
       </c>
@@ -39886,6 +40750,24 @@
       <c r="C162">
         <v>96.969696969696969</v>
       </c>
+      <c r="D162">
+        <v>91.836734693877546</v>
+      </c>
+      <c r="E162">
+        <v>83.673469387755105</v>
+      </c>
+      <c r="F162">
+        <v>97.959183673469383</v>
+      </c>
+      <c r="G162">
+        <v>91.75257731958763</v>
+      </c>
+      <c r="H162">
+        <v>84.536082474226802</v>
+      </c>
+      <c r="I162">
+        <v>98.969072164948457</v>
+      </c>
       <c r="M162">
         <v>91.578947368421055</v>
       </c>
@@ -39915,6 +40797,24 @@
       <c r="C163">
         <v>57.575757575757592</v>
       </c>
+      <c r="D163">
+        <v>57.142857142857153</v>
+      </c>
+      <c r="E163">
+        <v>58.163265306122447</v>
+      </c>
+      <c r="F163">
+        <v>54.081632653061227</v>
+      </c>
+      <c r="G163">
+        <v>57.731958762886592</v>
+      </c>
+      <c r="H163">
+        <v>57.731958762886592</v>
+      </c>
+      <c r="I163">
+        <v>57.731958762886592</v>
+      </c>
       <c r="M163">
         <v>57.89473684210526</v>
       </c>
@@ -39944,6 +40844,24 @@
       <c r="C164">
         <v>89.898989898989896</v>
       </c>
+      <c r="D164">
+        <v>89.795918367346943</v>
+      </c>
+      <c r="E164">
+        <v>89.795918367346943</v>
+      </c>
+      <c r="F164">
+        <v>89.795918367346943</v>
+      </c>
+      <c r="G164">
+        <v>89.69072164948453</v>
+      </c>
+      <c r="H164">
+        <v>89.69072164948453</v>
+      </c>
+      <c r="I164">
+        <v>89.69072164948453</v>
+      </c>
       <c r="M164">
         <v>89.473684210526315</v>
       </c>
@@ -39973,6 +40891,24 @@
       <c r="C165">
         <v>94.949494949494948</v>
       </c>
+      <c r="D165">
+        <v>93.877551020408163</v>
+      </c>
+      <c r="E165">
+        <v>88.775510204081627</v>
+      </c>
+      <c r="F165">
+        <v>95.91836734693878</v>
+      </c>
+      <c r="G165">
+        <v>93.814432989690715</v>
+      </c>
+      <c r="H165">
+        <v>88.659793814432987</v>
+      </c>
+      <c r="I165">
+        <v>96.907216494845358</v>
+      </c>
       <c r="M165">
         <v>93.684210526315795</v>
       </c>
@@ -40002,6 +40938,24 @@
       <c r="C166">
         <v>68.686868686868692</v>
       </c>
+      <c r="D166">
+        <v>66.326530612244895</v>
+      </c>
+      <c r="E166">
+        <v>68.367346938775512</v>
+      </c>
+      <c r="F166">
+        <v>66.326530612244895</v>
+      </c>
+      <c r="G166">
+        <v>65.979381443298962</v>
+      </c>
+      <c r="H166">
+        <v>68.041237113402062</v>
+      </c>
+      <c r="I166">
+        <v>69.072164948453604</v>
+      </c>
       <c r="M166">
         <v>67.368421052631575</v>
       </c>
@@ -40030,6 +40984,24 @@
       </c>
       <c r="C167">
         <v>72.727272727272734</v>
+      </c>
+      <c r="D167">
+        <v>61.224489795918373</v>
+      </c>
+      <c r="E167">
+        <v>62.244897959183668</v>
+      </c>
+      <c r="F167">
+        <v>74.489795918367349</v>
+      </c>
+      <c r="G167">
+        <v>60.824742268041227</v>
+      </c>
+      <c r="H167">
+        <v>61.855670103092777</v>
+      </c>
+      <c r="I167">
+        <v>73.19587628865979</v>
       </c>
       <c r="M167">
         <v>62.105263157894747</v>
@@ -40063,29 +41035,29 @@
         <f t="shared" si="17"/>
         <v>86.494575383464294</v>
       </c>
-      <c r="D168" s="5" t="e">
+      <c r="D168" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E168" s="5" t="e">
+        <v>84.353741496598587</v>
+      </c>
+      <c r="E168" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F168" s="5" t="e">
+        <v>83.560090702947832</v>
+      </c>
+      <c r="F168" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G168" s="5" t="e">
+        <v>86.243386243386226</v>
+      </c>
+      <c r="G168" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H168" s="5" t="e">
+        <v>84.30698739977089</v>
+      </c>
+      <c r="H168" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I168" s="5" t="e">
+        <v>83.505154639175245</v>
+      </c>
+      <c r="I168" s="5">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>86.445208094692646</v>
       </c>
       <c r="J168" s="5" t="e">
         <f t="shared" si="17"/>
